--- a/WebRoot/static/template/investment/專案預測模板.xlsx
+++ b/WebRoot/static/template/investment/專案預測模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggao\Desktop\Fit BI\重要\investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\WebRoot\static\template\investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,18 +62,6 @@
     <t>Main Business（下拉選擇）</t>
   </si>
   <si>
-    <t>預計開始年份</t>
-  </si>
-  <si>
-    <t>預計開始月度</t>
-  </si>
-  <si>
-    <t>預計結束年份</t>
-  </si>
-  <si>
-    <t>預計結束月度</t>
-  </si>
-  <si>
     <t>預估收益-營收(本位幣)</t>
   </si>
   <si>
@@ -87,6 +75,74 @@
   </si>
   <si>
     <t>產品生命週期-年（用於購置設備）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">預計開始年份
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(年份填报格式示例：2022)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">預計開始月度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(月度填报格式示例：03)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">預計結束年份
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(年份报格式示例：2022)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">預計結束月度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(月度填报格式示例：03)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -96,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +185,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -584,10 +648,10 @@
     <col min="10" max="10" width="20.44140625" customWidth="1"/>
     <col min="11" max="11" width="25.21875" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="22.5546875" customWidth="1"/>
     <col min="17" max="17" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.77734375" customWidth="1"/>
     <col min="19" max="19" width="21.109375" customWidth="1"/>
@@ -626,7 +690,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:24" ht="29.4" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,43 +725,43 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/static/template/investment/專案預測模板.xlsx
+++ b/WebRoot/static/template/investment/專案預測模板.xlsx
@@ -59,9 +59,6 @@
     <t>Segment（下拉選擇）</t>
   </si>
   <si>
-    <t>Main Business（下拉選擇）</t>
-  </si>
-  <si>
     <t>預估收益-營收(本位幣)</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
       </rPr>
       <t>(月度填报格式示例：03)</t>
     </r>
+  </si>
+  <si>
+    <t>三大技術（下拉選擇）</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" customWidth="1"/>
     <col min="11" max="11" width="25.21875" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" customWidth="1"/>
@@ -716,52 +716,52 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="U2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="W2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
